--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arya Vijayan\IdeaProjects\seleniumautomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924FEDCB-3FCC-4E35-BEF2-B1BFBC2D0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0422F75-C133-4818-B250-15A9A1D9BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1160" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1160" windowWidth="16800" windowHeight="9670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Alfreds Futterkiste</t>
   </si>
@@ -79,13 +81,52 @@
   </si>
   <si>
     <t>Italy</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfPassword</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Arya@123</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>sdfksmds@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +139,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -174,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -197,8 +252,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,13 +544,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="20.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="30.5" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -507,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="20.5" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -518,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="20.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -529,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="30.5" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -540,7 +605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="30.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -555,4 +620,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF370BE-87D9-4543-A74B-8BE7FD9C1AC7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="37.5">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E4560B-5D30-4AF2-860D-8CB92AE1540B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="7"/>
+    <col min="4" max="4" width="17.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29">
+      <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1C92EC67-F573-4BBE-899E-6E73EF10865E}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{7F43F694-1C64-4828-B228-24FC33FFEDD4}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{2739516A-419A-494D-8E61-87FFAE23C6B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>